--- a/python/data/data clean/Data_Clean_Jember_2025.xlsx
+++ b/python/data/data clean/Data_Clean_Jember_2025.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\Prediksi-bawang-merah\python\data\data clean\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1050E4-6D1F-4FBA-8D8C-6AF897BC648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Harga (Rp)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,46 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,1925 +426,1932 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Harga (Rp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45658</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45659</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45660</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45663</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>38150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45664</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>38750</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45665</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>38650</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45666</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>38650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45667</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>39000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45670</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>39000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45671</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>39350</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45672</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>39500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45673</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>39500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45674</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>37350</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>38650</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45678</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45680</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45681</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45684</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45685</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45686</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>35850</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45688</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>34000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45692</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>34150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45693</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>34150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45694</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>33500</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45695</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45698</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>31650</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>45699</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>32650</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45700</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>31850</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45701</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>31000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45702</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>31000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45705</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>29650</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45706</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>29650</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45707</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>30350</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>30350</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45709</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>30000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45712</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>30150</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>45713</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>30150</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>31500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45715</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>32650</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45716</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>33150</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45719</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>33150</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45720</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>34350</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45721</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>37350</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45722</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45723</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45726</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>35850</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>45727</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>35650</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45728</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>36350</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>45729</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>37350</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>45730</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>37350</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>45733</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>45734</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45735</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>45736</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>45737</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>37650</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>45740</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>38850</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>45741</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>38850</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>45742</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>38850</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>45743</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>39350</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>45744</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>45747</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>45748</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>45749</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>45750</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>45751</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>45754</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>45755</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>41500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>45756</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>41350</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>45757</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>41350</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>45758</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>42350</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>45761</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>42350</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>45762</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>42650</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>45763</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>42650</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>42650</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>45765</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>42650</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>45768</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>43850</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>45769</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>43850</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>45770</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>43500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>45771</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>44350</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>45772</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>44350</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>37350</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>45776</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>37000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>45777</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>45779</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>35850</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>35850</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>45786</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>45789</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>45790</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>45791</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>45796</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>45797</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>45798</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>32500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>45799</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>30350</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>30350</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>45803</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>29650</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>45804</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>29500</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>29000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>45806</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>29000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>29000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>45810</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>28850</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>29850</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>33850</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>33350</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>31000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>31150</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>45824</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>34500</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>45826</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>34500</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>36000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>45828</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>38350</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>45831</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>36650</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>45832</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>35850</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>36150</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>36150</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>37000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>34500</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>34150</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>45846</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>34500</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>34650</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>36850</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>45853</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>37500</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>39150</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>38350</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>45859</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>36650</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>45860</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>45861</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>43350</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>45862</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>45000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>45863</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>47650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>45350</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>45867</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>46500</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>45868</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>48150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>48150</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>48150</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>48150</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>45874</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>48150</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>45875</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>49500</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>45876</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>50000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>45877</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>51650</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>45880</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>52000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>45881</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>52000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>52650</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>45883</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>49000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>45884</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>46500</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>46500</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>45888</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>46150</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>38500</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>38350</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>36650</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>45894</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>45895</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>38850</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>45896</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>36850</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>45897</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>45898</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>38150</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>45901</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>41500</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>37850</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>45903</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>45904</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>45905</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>45908</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>36150</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>45909</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>45910</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>45911</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>34850</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>45912</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>34850</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>45915</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>32350</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>45916</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>32000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>32350</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>45918</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>33350</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>45919</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>45922</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>33850</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>45923</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>33850</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>45924</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>33000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>45925</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>33150</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>45926</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>33150</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>45929</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>33150</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>33350</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>45931</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>33350</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>45932</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>33350</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>33500</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>45936</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>33850</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>45937</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>33650</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>45939</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>34000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>45940</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>33850</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>45943</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>45944</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>35150</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>45946</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>35150</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>35150</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>35350</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>35000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>45953</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>45957</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>45958</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>45960</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>37150</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>45965</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>39850</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>45967</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>40150</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>40150</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>45971</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>39850</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>45972</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>45974</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45975</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>45978</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>45979</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>39650</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>39500</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>45985</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>39500</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>40850</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>40850</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>45988</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>40850</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>40650</v>
       </c>
     </row>
